--- a/data/pca/factorExposure/factorExposure_2018-04-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01321170892514242</v>
+        <v>0.01393928917582734</v>
       </c>
       <c r="C2">
-        <v>0.02933719823104928</v>
+        <v>-0.02267970546731108</v>
       </c>
       <c r="D2">
-        <v>-0.0258855783823286</v>
+        <v>0.03096256093224455</v>
       </c>
       <c r="E2">
-        <v>0.007353416322453225</v>
+        <v>0.01959577550168334</v>
       </c>
       <c r="F2">
-        <v>-0.09370449370788141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.0100714051375772</v>
+      </c>
+      <c r="G2">
+        <v>-0.02892913324314577</v>
+      </c>
+      <c r="H2">
+        <v>0.04432760415117427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08837047210822516</v>
+        <v>0.06438220617359183</v>
       </c>
       <c r="C3">
-        <v>0.0476634283461561</v>
+        <v>-0.07907145694109703</v>
       </c>
       <c r="D3">
-        <v>-0.01031809393660897</v>
+        <v>0.02502786631012483</v>
       </c>
       <c r="E3">
-        <v>0.03244747192260514</v>
+        <v>0.007564074982017934</v>
       </c>
       <c r="F3">
-        <v>-0.3414966403243367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.06244343622483352</v>
+      </c>
+      <c r="G3">
+        <v>-0.1378855569524025</v>
+      </c>
+      <c r="H3">
+        <v>0.1043147144340712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04572555274210436</v>
+        <v>0.03491185024090725</v>
       </c>
       <c r="C4">
-        <v>0.01747932676762707</v>
+        <v>-0.05898430335663638</v>
       </c>
       <c r="D4">
-        <v>-0.03524360128016688</v>
+        <v>0.03388941544279505</v>
       </c>
       <c r="E4">
-        <v>-0.0366574370481692</v>
+        <v>-0.01572759852383558</v>
       </c>
       <c r="F4">
-        <v>-0.06151025650031033</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.02558067582780492</v>
+      </c>
+      <c r="G4">
+        <v>-0.0507569501478626</v>
+      </c>
+      <c r="H4">
+        <v>0.05538487336563056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03314664852766915</v>
+        <v>0.02203495568553228</v>
       </c>
       <c r="C6">
-        <v>0.01482139376346208</v>
+        <v>-0.05678295438913443</v>
       </c>
       <c r="D6">
-        <v>-0.03824877971249812</v>
+        <v>0.02794761759632904</v>
       </c>
       <c r="E6">
-        <v>-0.02493702279793326</v>
+        <v>-0.004608812748116201</v>
       </c>
       <c r="F6">
-        <v>-0.01183046989564546</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02728874339593183</v>
+      </c>
+      <c r="G6">
+        <v>-0.02013397431099381</v>
+      </c>
+      <c r="H6">
+        <v>0.05851129140304665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03990950375903727</v>
+        <v>0.009418090518346439</v>
       </c>
       <c r="C7">
-        <v>-0.02700227488066122</v>
+        <v>-0.03250573029079631</v>
       </c>
       <c r="D7">
-        <v>-0.03223233709457421</v>
+        <v>0.01960747386724745</v>
       </c>
       <c r="E7">
-        <v>-0.01496082173729301</v>
+        <v>-0.04336685630693485</v>
       </c>
       <c r="F7">
-        <v>-0.03759528122469211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.007823971788480859</v>
+      </c>
+      <c r="G7">
+        <v>-0.01864545928922904</v>
+      </c>
+      <c r="H7">
+        <v>0.03565356319151082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01615125773308248</v>
+        <v>0.0006287190209432654</v>
       </c>
       <c r="C8">
-        <v>0.001204252148064668</v>
+        <v>-0.01222333715815462</v>
       </c>
       <c r="D8">
-        <v>-0.04347018549037569</v>
+        <v>0.00469713769394247</v>
       </c>
       <c r="E8">
-        <v>-0.0272736125992799</v>
+        <v>-0.009736062570810647</v>
       </c>
       <c r="F8">
-        <v>-0.06400541687252606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.000632333076270048</v>
+      </c>
+      <c r="G8">
+        <v>-0.04095622391350549</v>
+      </c>
+      <c r="H8">
+        <v>0.03197992152753876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03381393183083727</v>
+        <v>0.02397349945773932</v>
       </c>
       <c r="C9">
-        <v>0.01148838247990108</v>
+        <v>-0.04525198928044496</v>
       </c>
       <c r="D9">
-        <v>-0.03290465985685954</v>
+        <v>0.02392962277487238</v>
       </c>
       <c r="E9">
-        <v>-0.01443075015653909</v>
+        <v>-0.005907324881377664</v>
       </c>
       <c r="F9">
-        <v>-0.07967168704396824</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.0001592608706277739</v>
+      </c>
+      <c r="G9">
+        <v>-0.04472470415051905</v>
+      </c>
+      <c r="H9">
+        <v>0.05253041899566741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04102981418429211</v>
+        <v>0.1353262712594823</v>
       </c>
       <c r="C10">
-        <v>0.004594266676142612</v>
+        <v>0.1291658425216801</v>
       </c>
       <c r="D10">
-        <v>0.1471993807826472</v>
+        <v>-0.06391098741987686</v>
       </c>
       <c r="E10">
-        <v>0.04206392534558686</v>
+        <v>-3.754780019435085e-05</v>
       </c>
       <c r="F10">
-        <v>-0.06006423746944028</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04436744975668105</v>
+      </c>
+      <c r="G10">
+        <v>-0.01944718141945481</v>
+      </c>
+      <c r="H10">
+        <v>-0.01110272566902849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03067759012877122</v>
+        <v>0.01552081170241082</v>
       </c>
       <c r="C11">
-        <v>0.02367041332908012</v>
+        <v>-0.04985599459662299</v>
       </c>
       <c r="D11">
-        <v>-0.03706015813415459</v>
+        <v>0.01243256861718962</v>
       </c>
       <c r="E11">
-        <v>-0.02144283116517113</v>
+        <v>0.001923900015889125</v>
       </c>
       <c r="F11">
-        <v>-0.02681546159173787</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.005130820666798519</v>
+      </c>
+      <c r="G11">
+        <v>-0.0216872403952141</v>
+      </c>
+      <c r="H11">
+        <v>0.04979272074583575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04132932471491046</v>
+        <v>0.01951446495296655</v>
       </c>
       <c r="C12">
-        <v>0.02249423422829059</v>
+        <v>-0.04708451001862212</v>
       </c>
       <c r="D12">
-        <v>-0.0297254118317867</v>
+        <v>0.01540372018906235</v>
       </c>
       <c r="E12">
-        <v>-0.03051983873897219</v>
+        <v>-0.01116827885809812</v>
       </c>
       <c r="F12">
-        <v>-0.001460663864326631</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01142439130918566</v>
+      </c>
+      <c r="G12">
+        <v>-0.008195368408463915</v>
+      </c>
+      <c r="H12">
+        <v>0.01922537243571816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01136136460931275</v>
+        <v>0.01807310420596981</v>
       </c>
       <c r="C13">
-        <v>0.02199600696114721</v>
+        <v>-0.01899636198302517</v>
       </c>
       <c r="D13">
-        <v>-0.01062788996666487</v>
+        <v>0.0255660297637227</v>
       </c>
       <c r="E13">
-        <v>-0.008549919447195976</v>
+        <v>0.01370758403311005</v>
       </c>
       <c r="F13">
-        <v>-0.07552905915843937</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.001977083676268756</v>
+      </c>
+      <c r="G13">
+        <v>-0.05548906827634714</v>
+      </c>
+      <c r="H13">
+        <v>0.06862776766539183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02415577424608559</v>
+        <v>0.009505333459523454</v>
       </c>
       <c r="C14">
-        <v>-0.001566175209877283</v>
+        <v>-0.01977308090443525</v>
       </c>
       <c r="D14">
-        <v>-0.0185753361811289</v>
+        <v>0.01127846523991563</v>
       </c>
       <c r="E14">
-        <v>-0.01818948081802981</v>
+        <v>-0.01398721889975884</v>
       </c>
       <c r="F14">
-        <v>-0.04845591926615128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.004790870168360896</v>
+      </c>
+      <c r="G14">
+        <v>-0.03789364116197075</v>
+      </c>
+      <c r="H14">
+        <v>0.00923330137569372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03180455447463996</v>
+        <v>0.01734326132858451</v>
       </c>
       <c r="C16">
-        <v>0.02320103183488195</v>
+        <v>-0.04329358449275553</v>
       </c>
       <c r="D16">
-        <v>-0.04052187828888253</v>
+        <v>0.009945754688955387</v>
       </c>
       <c r="E16">
-        <v>-0.02290987103034019</v>
+        <v>-0.002400575248600575</v>
       </c>
       <c r="F16">
-        <v>-0.02845982824803689</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.007121573051635909</v>
+      </c>
+      <c r="G16">
+        <v>-0.0212255527630974</v>
+      </c>
+      <c r="H16">
+        <v>0.03576140520457304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03661202009547648</v>
+        <v>0.01978071202836043</v>
       </c>
       <c r="C19">
-        <v>0.01968297614626502</v>
+        <v>-0.04114162560078868</v>
       </c>
       <c r="D19">
-        <v>-0.04550337464100213</v>
+        <v>0.0216328335734304</v>
       </c>
       <c r="E19">
-        <v>-0.03669796340622899</v>
+        <v>-0.01035266991182582</v>
       </c>
       <c r="F19">
-        <v>-0.07862784282886749</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.002583841200547415</v>
+      </c>
+      <c r="G19">
+        <v>-0.05769847230943229</v>
+      </c>
+      <c r="H19">
+        <v>0.05246788241069622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003437738511110205</v>
+        <v>0.005062355751951611</v>
       </c>
       <c r="C20">
-        <v>-0.008552342028371882</v>
+        <v>-0.01830341368430178</v>
       </c>
       <c r="D20">
-        <v>-0.005379507101378207</v>
+        <v>0.01526237786580868</v>
       </c>
       <c r="E20">
-        <v>-0.01250576038785423</v>
+        <v>-0.004625429175707641</v>
       </c>
       <c r="F20">
-        <v>-0.05586234119486966</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.007468941172629518</v>
+      </c>
+      <c r="G20">
+        <v>-0.04813630185002271</v>
+      </c>
+      <c r="H20">
+        <v>0.02588182268276396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02023585653063872</v>
+        <v>0.01205141198818084</v>
       </c>
       <c r="C21">
-        <v>-0.01457527335474985</v>
+        <v>-0.01837670816369164</v>
       </c>
       <c r="D21">
-        <v>-0.03419679855844234</v>
+        <v>0.01724547995506399</v>
       </c>
       <c r="E21">
-        <v>-0.006350357280010465</v>
+        <v>-0.01672641548048468</v>
       </c>
       <c r="F21">
-        <v>-0.02710041490729124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01258226852007875</v>
+      </c>
+      <c r="G21">
+        <v>-0.03815288304461615</v>
+      </c>
+      <c r="H21">
+        <v>0.05010322774141064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02898102620843365</v>
+        <v>0.01234410764518449</v>
       </c>
       <c r="C24">
-        <v>0.02092700078119123</v>
+        <v>-0.0417496591771584</v>
       </c>
       <c r="D24">
-        <v>-0.02102942569779303</v>
+        <v>0.01511604283512974</v>
       </c>
       <c r="E24">
-        <v>-0.02192716494599273</v>
+        <v>-0.0008597042015827883</v>
       </c>
       <c r="F24">
-        <v>-0.03159490291574832</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.0062205928651145</v>
+      </c>
+      <c r="G24">
+        <v>-0.01546121545454984</v>
+      </c>
+      <c r="H24">
+        <v>0.04320015211030711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03301007882827377</v>
+        <v>0.02592285739455129</v>
       </c>
       <c r="C25">
-        <v>0.01976283074936206</v>
+        <v>-0.04589254452847539</v>
       </c>
       <c r="D25">
-        <v>-0.03361623122652507</v>
+        <v>0.01933606628575029</v>
       </c>
       <c r="E25">
-        <v>-0.01728002825355117</v>
+        <v>-0.00620915882471382</v>
       </c>
       <c r="F25">
-        <v>-0.03403573653648324</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01307166300790484</v>
+      </c>
+      <c r="G25">
+        <v>-0.0204020501610107</v>
+      </c>
+      <c r="H25">
+        <v>0.04392257310140545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.0149488178217498</v>
+        <v>0.00944040678947919</v>
       </c>
       <c r="C26">
-        <v>0.008419189731161536</v>
+        <v>-0.002158801644778799</v>
       </c>
       <c r="D26">
-        <v>-0.02124184148323368</v>
+        <v>0.0230044799434436</v>
       </c>
       <c r="E26">
-        <v>0.003386478280905396</v>
+        <v>-0.00166465114586593</v>
       </c>
       <c r="F26">
-        <v>-0.05492132948636035</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.008870947212611972</v>
+      </c>
+      <c r="G26">
+        <v>-0.02462471161105452</v>
+      </c>
+      <c r="H26">
+        <v>0.01817364215106425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.03659326531250461</v>
+        <v>0.01321883041211498</v>
       </c>
       <c r="C27">
-        <v>0.01763355412912605</v>
+        <v>-0.01391218910808248</v>
       </c>
       <c r="D27">
-        <v>-0.002016062858015432</v>
+        <v>0.001122705125256999</v>
       </c>
       <c r="E27">
-        <v>-0.03152512504451774</v>
+        <v>-0.006732081759632746</v>
       </c>
       <c r="F27">
-        <v>-0.01373452228877716</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.00262446748612576</v>
+      </c>
+      <c r="G27">
+        <v>-0.009324010551243852</v>
+      </c>
+      <c r="H27">
+        <v>-0.00524135560725184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07237046086555969</v>
+        <v>0.1877596387614455</v>
       </c>
       <c r="C28">
-        <v>0.009452056133415354</v>
+        <v>0.1727980186361827</v>
       </c>
       <c r="D28">
-        <v>0.2107732842753717</v>
+        <v>-0.07187875343745836</v>
       </c>
       <c r="E28">
-        <v>0.07969953926145572</v>
+        <v>-0.01239369415432657</v>
       </c>
       <c r="F28">
-        <v>-0.05698604922441163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.0414755900965099</v>
+      </c>
+      <c r="G28">
+        <v>-0.00782444268053561</v>
+      </c>
+      <c r="H28">
+        <v>-0.01368449749249003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02576208621529974</v>
+        <v>0.01514298053366902</v>
       </c>
       <c r="C29">
-        <v>-0.0004630573736012391</v>
+        <v>-0.01893842648705125</v>
       </c>
       <c r="D29">
-        <v>-0.02154823434096884</v>
+        <v>0.009698405778466769</v>
       </c>
       <c r="E29">
-        <v>-0.02024881243063755</v>
+        <v>-0.01326387988117877</v>
       </c>
       <c r="F29">
-        <v>-0.04499901462549641</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.005134942122634337</v>
+      </c>
+      <c r="G29">
+        <v>-0.03696760018412451</v>
+      </c>
+      <c r="H29">
+        <v>0.004816544125054695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04882369868107447</v>
+        <v>0.03147706314920517</v>
       </c>
       <c r="C30">
-        <v>0.07428448542992067</v>
+        <v>-0.08516223990982205</v>
       </c>
       <c r="D30">
-        <v>-0.05816821102036853</v>
+        <v>0.04559357349946918</v>
       </c>
       <c r="E30">
-        <v>-0.03087781469378981</v>
+        <v>0.032966884824241</v>
       </c>
       <c r="F30">
-        <v>-0.08857422595234564</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.0157698617805633</v>
+      </c>
+      <c r="G30">
+        <v>-0.06281313030577908</v>
+      </c>
+      <c r="H30">
+        <v>0.07377352214527481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05186325530063416</v>
+        <v>0.04297138434587981</v>
       </c>
       <c r="C31">
-        <v>0.03564778204864249</v>
+        <v>-0.03287049383034611</v>
       </c>
       <c r="D31">
-        <v>-0.01888911423316371</v>
+        <v>0.006810261615742174</v>
       </c>
       <c r="E31">
-        <v>-0.02487469565277386</v>
+        <v>0.0005108189805333959</v>
       </c>
       <c r="F31">
-        <v>-0.03211171716499153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.00340598877626</v>
+      </c>
+      <c r="G31">
+        <v>-0.01766249570813192</v>
+      </c>
+      <c r="H31">
+        <v>0.004026990166421245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02478058770116683</v>
+        <v>0.007990984071013925</v>
       </c>
       <c r="C32">
-        <v>-0.01338427602531521</v>
+        <v>-0.01902203602092822</v>
       </c>
       <c r="D32">
-        <v>-0.05414243011060529</v>
+        <v>-0.004895137303619165</v>
       </c>
       <c r="E32">
-        <v>-0.04106342983067311</v>
+        <v>-0.0299447905989186</v>
       </c>
       <c r="F32">
-        <v>-0.04462228754973822</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.0216071795951517</v>
+      </c>
+      <c r="G32">
+        <v>-0.05114466105225569</v>
+      </c>
+      <c r="H32">
+        <v>0.04828453438243908</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03200590509975472</v>
+        <v>0.02004524146083218</v>
       </c>
       <c r="C33">
-        <v>0.04402271944653855</v>
+        <v>-0.04502514961128662</v>
       </c>
       <c r="D33">
-        <v>-0.05168893526486215</v>
+        <v>0.02284878195173524</v>
       </c>
       <c r="E33">
-        <v>-0.002098906008120936</v>
+        <v>0.01979947902623641</v>
       </c>
       <c r="F33">
-        <v>-0.06245183183102977</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.0173893677209738</v>
+      </c>
+      <c r="G33">
+        <v>-0.03515338207259331</v>
+      </c>
+      <c r="H33">
+        <v>0.04913379583651083</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03676218500327559</v>
+        <v>0.02422317968804291</v>
       </c>
       <c r="C34">
-        <v>0.01648958507928766</v>
+        <v>-0.05261674244312184</v>
       </c>
       <c r="D34">
-        <v>-0.04245184259555666</v>
+        <v>0.004347281123409456</v>
       </c>
       <c r="E34">
-        <v>-0.03310312427749543</v>
+        <v>-0.0135982895251649</v>
       </c>
       <c r="F34">
-        <v>-0.02676321530341847</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01612283306257703</v>
+      </c>
+      <c r="G34">
+        <v>-0.01365756942182942</v>
+      </c>
+      <c r="H34">
+        <v>0.03539911353373647</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01806894032679723</v>
+        <v>0.01504264641946053</v>
       </c>
       <c r="C36">
-        <v>-0.0003421646437669145</v>
+        <v>-0.004387282108651998</v>
       </c>
       <c r="D36">
-        <v>-0.01253191053845472</v>
+        <v>0.009849645382965861</v>
       </c>
       <c r="E36">
-        <v>-0.01253449967794562</v>
+        <v>-0.008330250183993566</v>
       </c>
       <c r="F36">
-        <v>-0.02954630796992008</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.005123474644814898</v>
+      </c>
+      <c r="G36">
+        <v>-0.01671133447259689</v>
+      </c>
+      <c r="H36">
+        <v>0.01543265556272298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.008189231417474673</v>
+        <v>0.02356193419140503</v>
       </c>
       <c r="C38">
-        <v>0.00500125159008054</v>
+        <v>-0.02091214801388196</v>
       </c>
       <c r="D38">
-        <v>-0.002397200269530075</v>
+        <v>-0.005957680813909801</v>
       </c>
       <c r="E38">
-        <v>0.02014761915895669</v>
+        <v>-0.0004852276292362647</v>
       </c>
       <c r="F38">
-        <v>-0.04534009469585743</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.0008707727986774816</v>
+      </c>
+      <c r="G38">
+        <v>-0.02285218958780612</v>
+      </c>
+      <c r="H38">
+        <v>0.03176672700254847</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02973819560276455</v>
+        <v>0.005881596811741817</v>
       </c>
       <c r="C39">
-        <v>0.02254464094561432</v>
+        <v>-0.08313887280245882</v>
       </c>
       <c r="D39">
-        <v>-0.05776802381465294</v>
+        <v>0.03215978033420016</v>
       </c>
       <c r="E39">
-        <v>-0.02386280563792181</v>
+        <v>0.006887501425896734</v>
       </c>
       <c r="F39">
-        <v>-0.04688351133231298</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.006968427404614822</v>
+      </c>
+      <c r="G39">
+        <v>-0.03259909362873306</v>
+      </c>
+      <c r="H39">
+        <v>0.07838999598768417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01908023032620321</v>
+        <v>0.02519627113113842</v>
       </c>
       <c r="C40">
-        <v>0.05114951450573247</v>
+        <v>-0.0320518237771031</v>
       </c>
       <c r="D40">
-        <v>-0.02328427302391123</v>
+        <v>0.01571694420582582</v>
       </c>
       <c r="E40">
-        <v>-0.03038776603231409</v>
+        <v>0.02441095538539292</v>
       </c>
       <c r="F40">
-        <v>-0.04046669901072657</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02511823565143695</v>
+      </c>
+      <c r="G40">
+        <v>-0.02219995969296592</v>
+      </c>
+      <c r="H40">
+        <v>0.05682822705189965</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.005377733393525793</v>
+        <v>0.01244227836601027</v>
       </c>
       <c r="C41">
-        <v>-0.002332407624439959</v>
+        <v>0.009719174898104583</v>
       </c>
       <c r="D41">
-        <v>-0.005139537350848588</v>
+        <v>-0.001185569325921269</v>
       </c>
       <c r="E41">
-        <v>0.01101726019926082</v>
+        <v>-0.004925099987378711</v>
       </c>
       <c r="F41">
-        <v>-0.003891765266920778</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.006092437542884729</v>
+      </c>
+      <c r="G41">
+        <v>0.004152181988988386</v>
+      </c>
+      <c r="H41">
+        <v>-0.004538018546233523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2271549785390809</v>
+        <v>0.1022616206867761</v>
       </c>
       <c r="C42">
-        <v>0.2252529051281336</v>
+        <v>-0.1797033481429206</v>
       </c>
       <c r="D42">
-        <v>-0.2375451282672936</v>
+        <v>0.1729515892422706</v>
       </c>
       <c r="E42">
-        <v>0.852111048692916</v>
+        <v>0.2127844173202758</v>
       </c>
       <c r="F42">
-        <v>0.2660436356368867</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.7276794643424778</v>
+      </c>
+      <c r="G42">
+        <v>0.5745468871659412</v>
+      </c>
+      <c r="H42">
+        <v>0.05581561292870758</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.00564501756579774</v>
+        <v>0.01364179625773536</v>
       </c>
       <c r="C43">
-        <v>0.003704128289981924</v>
+        <v>0.008379784250333222</v>
       </c>
       <c r="D43">
-        <v>-0.0107518794127244</v>
+        <v>-3.600835673859868e-05</v>
       </c>
       <c r="E43">
-        <v>0.001468296766638771</v>
+        <v>-0.0001736508598488259</v>
       </c>
       <c r="F43">
-        <v>-0.02401997256916002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.006652347591661888</v>
+      </c>
+      <c r="G43">
+        <v>0.0006715398416283104</v>
+      </c>
+      <c r="H43">
+        <v>0.004000869508879671</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02575936320763223</v>
+        <v>0.01129872979418204</v>
       </c>
       <c r="C44">
-        <v>-0.002944334415812393</v>
+        <v>-0.03968776901587698</v>
       </c>
       <c r="D44">
-        <v>-0.03213518814751629</v>
+        <v>0.01408238138892765</v>
       </c>
       <c r="E44">
-        <v>0.002400126429689051</v>
+        <v>-0.01395058967520221</v>
       </c>
       <c r="F44">
-        <v>-0.09352994217285771</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.01963507431584915</v>
+      </c>
+      <c r="G44">
+        <v>-0.033543625695406</v>
+      </c>
+      <c r="H44">
+        <v>0.05906040181388531</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02054425469892744</v>
+        <v>0.005706044132684447</v>
       </c>
       <c r="C46">
-        <v>0.01075327419794486</v>
+        <v>-0.01184767592033749</v>
       </c>
       <c r="D46">
-        <v>-0.05642924759781172</v>
+        <v>0.01349797284582285</v>
       </c>
       <c r="E46">
-        <v>-0.02361863475484864</v>
+        <v>-0.00128490081866677</v>
       </c>
       <c r="F46">
-        <v>-0.060280363515907</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01121668556152371</v>
+      </c>
+      <c r="G46">
+        <v>-0.03627655193980086</v>
+      </c>
+      <c r="H46">
+        <v>0.006905708304705731</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07932624537491899</v>
+        <v>0.05797604958783128</v>
       </c>
       <c r="C47">
-        <v>0.05066225841154022</v>
+        <v>-0.06768001294205515</v>
       </c>
       <c r="D47">
-        <v>-0.01138780334124804</v>
+        <v>0.006596615955406981</v>
       </c>
       <c r="E47">
-        <v>-0.03580462314828879</v>
+        <v>-0.006417117768344877</v>
       </c>
       <c r="F47">
-        <v>-0.005877975281945047</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.009478470229102096</v>
+      </c>
+      <c r="G47">
+        <v>-0.001785388057431938</v>
+      </c>
+      <c r="H47">
+        <v>-0.03131302960373738</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.0176708917779943</v>
+        <v>0.01537177175448733</v>
       </c>
       <c r="C48">
-        <v>0.01059976503134817</v>
+        <v>-0.01613966136048537</v>
       </c>
       <c r="D48">
-        <v>-0.02079707225869043</v>
+        <v>0.003338689823860325</v>
       </c>
       <c r="E48">
-        <v>-0.01252675970676421</v>
+        <v>-0.001400522997007386</v>
       </c>
       <c r="F48">
-        <v>-0.03535634859683218</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.001247387487687885</v>
+      </c>
+      <c r="G48">
+        <v>-0.01855222225162643</v>
+      </c>
+      <c r="H48">
+        <v>0.01844922749431854</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08421502883692784</v>
+        <v>0.06204417554569067</v>
       </c>
       <c r="C50">
-        <v>0.03397629483127328</v>
+        <v>-0.06375707233514676</v>
       </c>
       <c r="D50">
-        <v>-0.03349507946192184</v>
+        <v>0.006992750616824664</v>
       </c>
       <c r="E50">
-        <v>-0.02464714221488339</v>
+        <v>-0.01786748529309332</v>
       </c>
       <c r="F50">
-        <v>-0.01805087807527761</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.00068731471616434</v>
+      </c>
+      <c r="G50">
+        <v>-0.008243117717019879</v>
+      </c>
+      <c r="H50">
+        <v>-0.01684179554354426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02109170529847991</v>
+        <v>0.01373201043904686</v>
       </c>
       <c r="C51">
-        <v>0.00599316266286885</v>
+        <v>-0.01260391146063259</v>
       </c>
       <c r="D51">
-        <v>0.001379282520160539</v>
+        <v>0.008112029317672765</v>
       </c>
       <c r="E51">
-        <v>-0.01248546133036384</v>
+        <v>-0.008126517336416622</v>
       </c>
       <c r="F51">
-        <v>-0.08477047746454394</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.006423686021035323</v>
+      </c>
+      <c r="G51">
+        <v>-0.03452996038874208</v>
+      </c>
+      <c r="H51">
+        <v>0.04150626143792652</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.0862342577032754</v>
+        <v>0.07382508166391992</v>
       </c>
       <c r="C53">
-        <v>0.05333869971594432</v>
+        <v>-0.1013724203255812</v>
       </c>
       <c r="D53">
-        <v>-0.03869867541347423</v>
+        <v>0.01488101572915794</v>
       </c>
       <c r="E53">
-        <v>-0.0391555091662751</v>
+        <v>-0.01000306661279344</v>
       </c>
       <c r="F53">
-        <v>0.03294832348590537</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02926813206710616</v>
+      </c>
+      <c r="G53">
+        <v>0.01903885205109682</v>
+      </c>
+      <c r="H53">
+        <v>-0.02791522715986411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02587628946365106</v>
+        <v>0.02374019459159232</v>
       </c>
       <c r="C54">
-        <v>0.001317456322423903</v>
+        <v>-0.0008128532096521106</v>
       </c>
       <c r="D54">
-        <v>0.003194234425673052</v>
+        <v>-0.007313843257952197</v>
       </c>
       <c r="E54">
-        <v>-0.02250140640354235</v>
+        <v>-0.007738167926539155</v>
       </c>
       <c r="F54">
-        <v>-0.03065264297553957</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01179392954475575</v>
+      </c>
+      <c r="G54">
+        <v>-0.03756636555164865</v>
+      </c>
+      <c r="H54">
+        <v>-0.00368336629655098</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08414928613272998</v>
+        <v>0.05600896414707364</v>
       </c>
       <c r="C55">
-        <v>0.0470256318443314</v>
+        <v>-0.09051538334185859</v>
       </c>
       <c r="D55">
-        <v>-0.04171157428803619</v>
+        <v>0.01436860856148146</v>
       </c>
       <c r="E55">
-        <v>-0.02904886212212936</v>
+        <v>-0.01076144547392825</v>
       </c>
       <c r="F55">
-        <v>0.03628443417967241</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01341186845113195</v>
+      </c>
+      <c r="G55">
+        <v>0.006752937989065549</v>
+      </c>
+      <c r="H55">
+        <v>-0.03732536214732055</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.12172786285468</v>
+        <v>0.09735780954905286</v>
       </c>
       <c r="C56">
-        <v>0.08082896830524172</v>
+        <v>-0.1296702135942635</v>
       </c>
       <c r="D56">
-        <v>-0.02225006461880978</v>
+        <v>0.01287167884360142</v>
       </c>
       <c r="E56">
-        <v>-0.07461901188879322</v>
+        <v>-0.01029015692404958</v>
       </c>
       <c r="F56">
-        <v>0.0659085934244884</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.05541776307782072</v>
+      </c>
+      <c r="G56">
+        <v>0.03905485172754763</v>
+      </c>
+      <c r="H56">
+        <v>-0.06722431212534567</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03803104674645244</v>
+        <v>0.02615776002519873</v>
       </c>
       <c r="C57">
-        <v>0.02981081679189108</v>
+        <v>-0.02639254168606307</v>
       </c>
       <c r="D57">
-        <v>-0.02136574310207537</v>
+        <v>0.02931880263114413</v>
       </c>
       <c r="E57">
-        <v>0.02806616475193204</v>
+        <v>0.008183751749571411</v>
       </c>
       <c r="F57">
-        <v>-0.05393794020160226</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02907068184224056</v>
+      </c>
+      <c r="G57">
+        <v>-0.05743234398255502</v>
+      </c>
+      <c r="H57">
+        <v>0.05392919961738984</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1468298661807139</v>
+        <v>0.0955543202452014</v>
       </c>
       <c r="C58">
-        <v>0.2175433273304151</v>
+        <v>-0.1840099719321236</v>
       </c>
       <c r="D58">
-        <v>-0.2192122660102216</v>
+        <v>0.0490828915215997</v>
       </c>
       <c r="E58">
-        <v>-0.003077227768773998</v>
+        <v>0.2904705185935438</v>
       </c>
       <c r="F58">
-        <v>-0.5309398916866521</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.4303761147339129</v>
+      </c>
+      <c r="G58">
+        <v>-0.7102048935567304</v>
+      </c>
+      <c r="H58">
+        <v>-0.3065894022810207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05332628141441934</v>
+        <v>0.204667168713358</v>
       </c>
       <c r="C59">
-        <v>0.03087063310043191</v>
+        <v>0.1619418407809402</v>
       </c>
       <c r="D59">
-        <v>0.1845817157270811</v>
+        <v>-0.07753504314789524</v>
       </c>
       <c r="E59">
-        <v>0.03573304620816931</v>
+        <v>0.008103183804730373</v>
       </c>
       <c r="F59">
-        <v>-0.08502495556481773</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.006404903745921392</v>
+      </c>
+      <c r="G59">
+        <v>-0.01540683603443033</v>
+      </c>
+      <c r="H59">
+        <v>0.01727433317524201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1311312537290865</v>
+        <v>0.2145485091643154</v>
       </c>
       <c r="C60">
-        <v>0.1201536497809246</v>
+        <v>-0.06189721521081068</v>
       </c>
       <c r="D60">
-        <v>0.0003482708141088745</v>
+        <v>0.002945947802614519</v>
       </c>
       <c r="E60">
-        <v>0.0164272299052848</v>
+        <v>0.05655755755281592</v>
       </c>
       <c r="F60">
-        <v>-0.1646325454163786</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.0825389117603237</v>
+      </c>
+      <c r="G60">
+        <v>-0.04404746091804392</v>
+      </c>
+      <c r="H60">
+        <v>0.3878492747944386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02123565788227785</v>
+        <v>0.01283273318292529</v>
       </c>
       <c r="C61">
-        <v>0.01099498170903717</v>
+        <v>-0.05818546748015764</v>
       </c>
       <c r="D61">
-        <v>-0.04353994974449055</v>
+        <v>0.01768860472901197</v>
       </c>
       <c r="E61">
-        <v>-0.008405967117210148</v>
+        <v>-0.003067700072157561</v>
       </c>
       <c r="F61">
-        <v>-0.01698367341482807</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.01042094490070874</v>
+      </c>
+      <c r="G61">
+        <v>-0.0248393811502925</v>
+      </c>
+      <c r="H61">
+        <v>0.05641126788417966</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01290639058381219</v>
+        <v>0.007554864543895829</v>
       </c>
       <c r="C63">
-        <v>0.001957489808006906</v>
+        <v>-0.01969529335249032</v>
       </c>
       <c r="D63">
-        <v>-0.0228463474658453</v>
+        <v>0.01202595722469709</v>
       </c>
       <c r="E63">
-        <v>-0.0003713607554039613</v>
+        <v>-0.009563361126210642</v>
       </c>
       <c r="F63">
-        <v>-0.007658053012936296</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.0005469314696460828</v>
+      </c>
+      <c r="G63">
+        <v>-0.01484702312614345</v>
+      </c>
+      <c r="H63">
+        <v>0.01267831518856029</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03647592072433783</v>
+        <v>0.03626851871436192</v>
       </c>
       <c r="C64">
-        <v>0.005222679763331633</v>
+        <v>-0.04201818633251565</v>
       </c>
       <c r="D64">
-        <v>-0.03117061128603531</v>
+        <v>0.01150148556915308</v>
       </c>
       <c r="E64">
-        <v>-0.02162237194714316</v>
+        <v>-0.01520556025896284</v>
       </c>
       <c r="F64">
-        <v>-0.01532495878341567</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.007688448264841571</v>
+      </c>
+      <c r="G64">
+        <v>0.009154532566520003</v>
+      </c>
+      <c r="H64">
+        <v>0.04738463799621566</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03698649764539096</v>
+        <v>0.04162688030578545</v>
       </c>
       <c r="C65">
-        <v>0.01651085016040599</v>
+        <v>-0.07353353742041918</v>
       </c>
       <c r="D65">
-        <v>-0.0384960974562755</v>
+        <v>0.03143801284068786</v>
       </c>
       <c r="E65">
-        <v>-0.02775971406612208</v>
+        <v>-0.00675386891062224</v>
       </c>
       <c r="F65">
-        <v>-0.004846714221418579</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.04713000498776697</v>
+      </c>
+      <c r="G65">
+        <v>-0.01130416044002542</v>
+      </c>
+      <c r="H65">
+        <v>0.07524059059088639</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03335325570648581</v>
+        <v>0.01313970871487048</v>
       </c>
       <c r="C66">
-        <v>0.03252022830072882</v>
+        <v>-0.1078845941133644</v>
       </c>
       <c r="D66">
-        <v>-0.062793424915045</v>
+        <v>0.03602823518429116</v>
       </c>
       <c r="E66">
-        <v>-0.04719616681147396</v>
+        <v>0.008315612391899168</v>
       </c>
       <c r="F66">
-        <v>-0.03199912104846547</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03008749809577596</v>
+      </c>
+      <c r="G66">
+        <v>-0.03831878990154492</v>
+      </c>
+      <c r="H66">
+        <v>0.08333227616953862</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01885441266825869</v>
+        <v>0.04558028338378121</v>
       </c>
       <c r="C67">
-        <v>0.01617801136211401</v>
+        <v>-0.02758528529323125</v>
       </c>
       <c r="D67">
-        <v>0.008895166680657185</v>
+        <v>-0.004651172104339909</v>
       </c>
       <c r="E67">
-        <v>0.01129605358473996</v>
+        <v>0.001539939516713713</v>
       </c>
       <c r="F67">
-        <v>-0.02740952428102698</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01256881117260552</v>
+      </c>
+      <c r="G67">
+        <v>-0.01718609399525736</v>
+      </c>
+      <c r="H67">
+        <v>0.03022888958265341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06754088359245922</v>
+        <v>0.2032005016758603</v>
       </c>
       <c r="C68">
-        <v>0.02704824649375596</v>
+        <v>0.196448741332242</v>
       </c>
       <c r="D68">
-        <v>0.2106738846836687</v>
+        <v>-0.06687728910724562</v>
       </c>
       <c r="E68">
-        <v>0.04722351349602478</v>
+        <v>0.00765493967287399</v>
       </c>
       <c r="F68">
-        <v>-0.07717912260316459</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.05304800273847861</v>
+      </c>
+      <c r="G68">
+        <v>-0.01578569825218637</v>
+      </c>
+      <c r="H68">
+        <v>-0.0451538986593271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0560253396167342</v>
+        <v>0.05561223835772434</v>
       </c>
       <c r="C69">
-        <v>0.0382976266057153</v>
+        <v>-0.06029506187778744</v>
       </c>
       <c r="D69">
-        <v>-0.01556437736375643</v>
+        <v>0.0004966716031508543</v>
       </c>
       <c r="E69">
-        <v>-0.03788779905480927</v>
+        <v>-0.005216492604945967</v>
       </c>
       <c r="F69">
-        <v>-0.01007093161154639</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02779943012206255</v>
+      </c>
+      <c r="G69">
+        <v>-0.0003360337091264924</v>
+      </c>
+      <c r="H69">
+        <v>0.007111089091802407</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07460196545451443</v>
+        <v>0.1825104901415696</v>
       </c>
       <c r="C71">
-        <v>0.03629339981496296</v>
+        <v>0.1543614890682768</v>
       </c>
       <c r="D71">
-        <v>0.2128852101970593</v>
+        <v>-0.06052564596294453</v>
       </c>
       <c r="E71">
-        <v>0.08561339190263852</v>
+        <v>0.01186700087294242</v>
       </c>
       <c r="F71">
-        <v>-0.08116315143078638</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.06508213282342032</v>
+      </c>
+      <c r="G71">
+        <v>-0.01523674741158003</v>
+      </c>
+      <c r="H71">
+        <v>-0.02667683145276742</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09711157129073232</v>
+        <v>0.05872342394415973</v>
       </c>
       <c r="C72">
-        <v>0.08299970692404271</v>
+        <v>-0.1078096017596777</v>
       </c>
       <c r="D72">
-        <v>-0.06663191950188004</v>
+        <v>0.01245244228255614</v>
       </c>
       <c r="E72">
-        <v>-0.08209019714019768</v>
+        <v>0.01680827668333836</v>
       </c>
       <c r="F72">
-        <v>-0.06787334544630072</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.05968662739395631</v>
+      </c>
+      <c r="G72">
+        <v>-0.04291704768794204</v>
+      </c>
+      <c r="H72">
+        <v>0.09919978008633432</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1667021093915637</v>
+        <v>0.2807611052121605</v>
       </c>
       <c r="C73">
-        <v>0.1919647558963759</v>
+        <v>-0.1307402300037178</v>
       </c>
       <c r="D73">
-        <v>0.02205832397957201</v>
+        <v>0.0228633291262987</v>
       </c>
       <c r="E73">
-        <v>0.06047464360730342</v>
+        <v>0.09928386679248866</v>
       </c>
       <c r="F73">
-        <v>-0.1982471730108594</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.09446732168257801</v>
+      </c>
+      <c r="G73">
+        <v>-0.04759816641897976</v>
+      </c>
+      <c r="H73">
+        <v>0.4836720329706999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1129002794219225</v>
+        <v>0.09564009212167379</v>
       </c>
       <c r="C74">
-        <v>0.07387811195408904</v>
+        <v>-0.1335289518592154</v>
       </c>
       <c r="D74">
-        <v>-0.02182811752182623</v>
+        <v>0.01434131199677585</v>
       </c>
       <c r="E74">
-        <v>-0.04874206766190575</v>
+        <v>-0.01161973358903903</v>
       </c>
       <c r="F74">
-        <v>0.07782887392186262</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.04216679645026944</v>
+      </c>
+      <c r="G74">
+        <v>0.02614510456930912</v>
+      </c>
+      <c r="H74">
+        <v>-0.0408795656613111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1967009949077657</v>
+        <v>0.1996767926928697</v>
       </c>
       <c r="C75">
-        <v>0.146231757868523</v>
+        <v>-0.2255620068541168</v>
       </c>
       <c r="D75">
-        <v>-0.01041398586686865</v>
+        <v>0.01313862517991262</v>
       </c>
       <c r="E75">
-        <v>-0.1619998319933969</v>
+        <v>-0.007897897042281577</v>
       </c>
       <c r="F75">
-        <v>0.1247783135150572</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1157812172337874</v>
+      </c>
+      <c r="G75">
+        <v>0.06217862050343766</v>
+      </c>
+      <c r="H75">
+        <v>-0.1489000327594306</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2463841067851401</v>
+        <v>0.1559929737407595</v>
       </c>
       <c r="C76">
-        <v>0.134790225049278</v>
+        <v>-0.2043403866981578</v>
       </c>
       <c r="D76">
-        <v>-0.02334229977017613</v>
+        <v>0.01365892949815773</v>
       </c>
       <c r="E76">
-        <v>-0.173721197775327</v>
+        <v>-0.04640396378007079</v>
       </c>
       <c r="F76">
-        <v>0.2010805281782512</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.09515998918337495</v>
+      </c>
+      <c r="G76">
+        <v>0.06066882090153728</v>
+      </c>
+      <c r="H76">
+        <v>-0.1280857180135067</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.08950470924152119</v>
+        <v>0.04892458768719822</v>
       </c>
       <c r="C77">
-        <v>0.07139290966776489</v>
+        <v>-0.08591497769464787</v>
       </c>
       <c r="D77">
-        <v>-0.09476036021419744</v>
+        <v>0.03202439226843903</v>
       </c>
       <c r="E77">
-        <v>0.03439468262211886</v>
+        <v>0.01765805792096142</v>
       </c>
       <c r="F77">
-        <v>-0.1360832419783459</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.04522185490001747</v>
+      </c>
+      <c r="G77">
+        <v>-0.05977949734903967</v>
+      </c>
+      <c r="H77">
+        <v>0.01180395768706107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06240653232678266</v>
+        <v>0.02562558514320786</v>
       </c>
       <c r="C78">
-        <v>0.03444157900369107</v>
+        <v>-0.0787073507103338</v>
       </c>
       <c r="D78">
-        <v>-0.1143062467804571</v>
+        <v>0.02413557254148306</v>
       </c>
       <c r="E78">
-        <v>-0.03688575139889044</v>
+        <v>-0.004450230976508255</v>
       </c>
       <c r="F78">
-        <v>-0.0813666265319216</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.00012494887256166</v>
+      </c>
+      <c r="G78">
+        <v>-0.05917444595067238</v>
+      </c>
+      <c r="H78">
+        <v>0.09357935084534499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.6045645496525308</v>
+        <v>0.1092084478131714</v>
       </c>
       <c r="C80">
-        <v>-0.7752303985362364</v>
+        <v>-0.1067319834033054</v>
       </c>
       <c r="D80">
-        <v>-0.0724034719866843</v>
+        <v>0.0243340759539133</v>
       </c>
       <c r="E80">
-        <v>0.0474143297627137</v>
+        <v>-0.9114568906385982</v>
       </c>
       <c r="F80">
-        <v>-0.04270137517968953</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.3084996667664032</v>
+      </c>
+      <c r="G80">
+        <v>-0.1112033626520364</v>
+      </c>
+      <c r="H80">
+        <v>0.02976145278077835</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1547610367904932</v>
+        <v>0.1297110998906312</v>
       </c>
       <c r="C81">
-        <v>0.098842875217975</v>
+        <v>-0.1389392464095847</v>
       </c>
       <c r="D81">
-        <v>-0.003067396319654678</v>
+        <v>0.007847463858360618</v>
       </c>
       <c r="E81">
-        <v>-0.1198931602169812</v>
+        <v>-0.01684694179212176</v>
       </c>
       <c r="F81">
-        <v>0.1112906071723923</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.06530912486381341</v>
+      </c>
+      <c r="G81">
+        <v>0.04176580062360464</v>
+      </c>
+      <c r="H81">
+        <v>-0.0866033953976779</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02977207829990924</v>
+        <v>0.02564596314333183</v>
       </c>
       <c r="C83">
-        <v>0.02629922585850198</v>
+        <v>-0.02619142309976651</v>
       </c>
       <c r="D83">
-        <v>-0.02912518369509132</v>
+        <v>0.009295852973809216</v>
       </c>
       <c r="E83">
-        <v>0.01313753609896234</v>
+        <v>0.006967073632197504</v>
       </c>
       <c r="F83">
-        <v>-0.05753892432364097</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01577571670380448</v>
+      </c>
+      <c r="G83">
+        <v>-0.03895722363623848</v>
+      </c>
+      <c r="H83">
+        <v>0.04280222150249138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2202668920288475</v>
+        <v>0.1864138498003027</v>
       </c>
       <c r="C85">
-        <v>0.149576028954426</v>
+        <v>-0.2202484951934632</v>
       </c>
       <c r="D85">
-        <v>-0.02256352238127816</v>
+        <v>0.02673954320556142</v>
       </c>
       <c r="E85">
-        <v>-0.1463613451750051</v>
+        <v>-0.006850874853408898</v>
       </c>
       <c r="F85">
-        <v>0.1542745505494802</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.11681669775341</v>
+      </c>
+      <c r="G85">
+        <v>0.09194477768550555</v>
+      </c>
+      <c r="H85">
+        <v>-0.0792629799950208</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01188765446381492</v>
+        <v>0.01430273030667368</v>
       </c>
       <c r="C86">
-        <v>-0.0002685717222322939</v>
+        <v>-0.03610792462149172</v>
       </c>
       <c r="D86">
-        <v>-0.07919832420383364</v>
+        <v>0.01596131842862169</v>
       </c>
       <c r="E86">
-        <v>-0.0006016748352064985</v>
+        <v>-0.007090073249999513</v>
       </c>
       <c r="F86">
-        <v>-0.04930358148777691</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02588074716491936</v>
+      </c>
+      <c r="G86">
+        <v>-0.03104563389760844</v>
+      </c>
+      <c r="H86">
+        <v>0.0772353242577392</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03372257624275815</v>
+        <v>0.01206039073980239</v>
       </c>
       <c r="C87">
-        <v>0.02038879907228632</v>
+        <v>-0.0427531208994277</v>
       </c>
       <c r="D87">
-        <v>-0.04199524596378366</v>
+        <v>0.01914948439077063</v>
       </c>
       <c r="E87">
-        <v>-0.004665030073665383</v>
+        <v>0.001809599562514115</v>
       </c>
       <c r="F87">
-        <v>-0.1061649271373801</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02182061238266343</v>
+      </c>
+      <c r="G87">
+        <v>-0.07078518238269373</v>
+      </c>
+      <c r="H87">
+        <v>0.07909907098456412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.02206557463676512</v>
+        <v>0.04232483161575186</v>
       </c>
       <c r="C88">
-        <v>-0.001392269708846461</v>
+        <v>-0.01602082902590185</v>
       </c>
       <c r="D88">
-        <v>0.002921774915752188</v>
+        <v>0.02115396867706436</v>
       </c>
       <c r="E88">
-        <v>-0.02029403835389846</v>
+        <v>-0.0212157053159654</v>
       </c>
       <c r="F88">
-        <v>0.01806896233725734</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01826041259611063</v>
+      </c>
+      <c r="G88">
+        <v>-0.0001911777042052311</v>
+      </c>
+      <c r="H88">
+        <v>0.007968255295797094</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09751140406275421</v>
+        <v>0.3137509979158725</v>
       </c>
       <c r="C89">
-        <v>0.05106962028893038</v>
+        <v>0.2761255195729633</v>
       </c>
       <c r="D89">
-        <v>0.3384696501276156</v>
+        <v>-0.1066285856457912</v>
       </c>
       <c r="E89">
-        <v>0.05297928742498195</v>
+        <v>0.00816535702704968</v>
       </c>
       <c r="F89">
-        <v>-0.1041330314380638</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.01180983591674313</v>
+      </c>
+      <c r="G89">
+        <v>0.0191257044854693</v>
+      </c>
+      <c r="H89">
+        <v>-0.01002763085924065</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08419462549375709</v>
+        <v>0.2608473095773204</v>
       </c>
       <c r="C90">
-        <v>0.01898527623049774</v>
+        <v>0.255943370118548</v>
       </c>
       <c r="D90">
-        <v>0.3589472030495779</v>
+        <v>-0.0984417419683945</v>
       </c>
       <c r="E90">
-        <v>0.08082092260044851</v>
+        <v>0.0006182540118785148</v>
       </c>
       <c r="F90">
-        <v>-0.05494491027439154</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05595607405682943</v>
+      </c>
+      <c r="G90">
+        <v>0.01312529400233215</v>
+      </c>
+      <c r="H90">
+        <v>-0.05791810783334575</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2487545094798263</v>
+        <v>0.1973746739289629</v>
       </c>
       <c r="C91">
-        <v>0.1892427601903535</v>
+        <v>-0.2080218887531994</v>
       </c>
       <c r="D91">
-        <v>-0.02006617633449003</v>
+        <v>0.01021521196830067</v>
       </c>
       <c r="E91">
-        <v>-0.1257421493529502</v>
+        <v>0.002658804387016241</v>
       </c>
       <c r="F91">
-        <v>0.2400757013115082</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.101663819903787</v>
+      </c>
+      <c r="G91">
+        <v>0.08708706409315048</v>
+      </c>
+      <c r="H91">
+        <v>-0.164086383429595</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.155570738035535</v>
+        <v>0.2807132773064682</v>
       </c>
       <c r="C92">
-        <v>0.07758690072808824</v>
+        <v>0.1501372459194201</v>
       </c>
       <c r="D92">
-        <v>0.4269218264082048</v>
+        <v>-0.1158194176133833</v>
       </c>
       <c r="E92">
-        <v>-0.02275443233220747</v>
+        <v>-0.004759566627126067</v>
       </c>
       <c r="F92">
-        <v>0.05201856953729705</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.02689116679987119</v>
+      </c>
+      <c r="G92">
+        <v>-0.02203483641618106</v>
+      </c>
+      <c r="H92">
+        <v>-0.1492502878872221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08519726180403676</v>
+        <v>0.2922774339076899</v>
       </c>
       <c r="C93">
-        <v>0.06463790903903636</v>
+        <v>0.2503594970220898</v>
       </c>
       <c r="D93">
-        <v>0.4217796983480323</v>
+        <v>-0.107286047396573</v>
       </c>
       <c r="E93">
-        <v>0.1176209287854239</v>
+        <v>0.03372570812357752</v>
       </c>
       <c r="F93">
-        <v>-0.06066798108025424</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.04893641652714477</v>
+      </c>
+      <c r="G93">
+        <v>0.02072244685160378</v>
+      </c>
+      <c r="H93">
+        <v>0.001060608496523194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2445642158142696</v>
+        <v>0.2444748779331258</v>
       </c>
       <c r="C94">
-        <v>0.1983224476932499</v>
+        <v>-0.230960583120614</v>
       </c>
       <c r="D94">
-        <v>-0.01427562187943819</v>
+        <v>0.02417305854869262</v>
       </c>
       <c r="E94">
-        <v>-0.241415167079548</v>
+        <v>0.009887945668675459</v>
       </c>
       <c r="F94">
-        <v>0.1961039442887486</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2464379865364852</v>
+      </c>
+      <c r="G94">
+        <v>0.1392976440108555</v>
+      </c>
+      <c r="H94">
+        <v>-0.3991388162790638</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.01135685429187243</v>
+        <v>0.02774820541675842</v>
       </c>
       <c r="C95">
-        <v>0.08528107157280698</v>
+        <v>-0.0973415947161673</v>
       </c>
       <c r="D95">
-        <v>-0.04166493942206658</v>
+        <v>0.01624123554123094</v>
       </c>
       <c r="E95">
-        <v>-0.02095808006176304</v>
+        <v>0.08221392536766521</v>
       </c>
       <c r="F95">
-        <v>-0.01755251751194192</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.02572570884769598</v>
+      </c>
+      <c r="G95">
+        <v>-0.03840047675645352</v>
+      </c>
+      <c r="H95">
+        <v>0.03787014637740703</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1320329414028721</v>
+        <v>0.1853763094298472</v>
       </c>
       <c r="C98">
-        <v>0.122001493209098</v>
+        <v>-0.06814177777996011</v>
       </c>
       <c r="D98">
-        <v>0.02023084976584611</v>
+        <v>-0.01935874670263099</v>
       </c>
       <c r="E98">
-        <v>0.06012439362054103</v>
+        <v>0.06675848274022578</v>
       </c>
       <c r="F98">
-        <v>-0.1672919897813931</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.002276439214923305</v>
+      </c>
+      <c r="G98">
+        <v>-0.06761993174604915</v>
+      </c>
+      <c r="H98">
+        <v>0.3250559181657094</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.01228871595278698</v>
+        <v>0.009111442823095525</v>
       </c>
       <c r="C101">
-        <v>-0.0009624097768419346</v>
+        <v>-0.01908615956218703</v>
       </c>
       <c r="D101">
-        <v>-0.06112303054928245</v>
+        <v>0.01075305524284688</v>
       </c>
       <c r="E101">
-        <v>-0.02908814226878282</v>
+        <v>0.001029458696538187</v>
       </c>
       <c r="F101">
-        <v>-0.1687067657759601</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.02720210649751926</v>
+      </c>
+      <c r="G101">
+        <v>-0.0916372090837691</v>
+      </c>
+      <c r="H101">
+        <v>-0.0117987848229591</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.0983622165359347</v>
+        <v>0.09343302888163625</v>
       </c>
       <c r="C102">
-        <v>0.06266322351630176</v>
+        <v>-0.101085944274746</v>
       </c>
       <c r="D102">
-        <v>-0.01441881603443351</v>
+        <v>0.01822552040228632</v>
       </c>
       <c r="E102">
-        <v>-0.07675839140322849</v>
+        <v>-0.007871862377672222</v>
       </c>
       <c r="F102">
-        <v>0.09299300892173247</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06303146531094467</v>
+      </c>
+      <c r="G102">
+        <v>0.04059607030905703</v>
+      </c>
+      <c r="H102">
+        <v>-0.06155530480874329</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04360895957175586</v>
+        <v>0.01200488321189274</v>
       </c>
       <c r="C103">
-        <v>0.0140750817680437</v>
+        <v>-0.01880459810954605</v>
       </c>
       <c r="D103">
-        <v>-0.02137351685755986</v>
+        <v>0.003430349080782926</v>
       </c>
       <c r="E103">
-        <v>-0.04189922727111434</v>
+        <v>-0.01289570204233223</v>
       </c>
       <c r="F103">
-        <v>0.0101290406732174</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.00179173345282941</v>
+      </c>
+      <c r="G103">
+        <v>-0.006322808518337488</v>
+      </c>
+      <c r="H103">
+        <v>-0.01630257889945981</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1203886994294318</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.2890165542609565</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9349193495146637</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02718633476511743</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1138813988907516</v>
+      </c>
+      <c r="G104">
+        <v>-0.04485741425462238</v>
+      </c>
+      <c r="H104">
+        <v>-0.05440605491757356</v>
       </c>
     </row>
   </sheetData>
